--- a/word/架构图.xlsx
+++ b/word/架构图.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>PC端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +36,168 @@
   </si>
   <si>
     <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统名称</t>
+  </si>
+  <si>
+    <t>功能描述</t>
+  </si>
+  <si>
+    <t>PC端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAD端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统子模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借出管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归还管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资盘点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资借入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资归还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借入查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归还查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置系统公司架构、职务、职务权限、人员管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统使用用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理物资：增加、修改物资资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资借出管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资归还管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资盘点业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资查询业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统使用用户操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询物资报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用RFID读取用户身份信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用用户名或者RFID+密码方式登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描RFID，登录人借入物资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描RFID，登录人归还物资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户绑定微信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户借入物资情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户归还物资情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借入、归还物资时，通知管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -42,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +220,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -102,6 +279,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -852,7 +1038,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9667875</xdr:colOff>
+      <xdr:colOff>6810375</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>4838700</xdr:rowOff>
     </xdr:to>
@@ -864,7 +1050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="657225" y="219075"/>
-          <a:ext cx="9010650" cy="4619625"/>
+          <a:ext cx="6153150" cy="4619625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,7 +1155,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6477000</xdr:colOff>
+      <xdr:colOff>6134100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1552575</xdr:rowOff>
     </xdr:to>
@@ -981,7 +1167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1552575" y="457200"/>
-          <a:ext cx="4924425" cy="1095375"/>
+          <a:ext cx="4581525" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,7 +1207,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6477000</xdr:colOff>
+      <xdr:colOff>6134100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>2933700</xdr:rowOff>
     </xdr:to>
@@ -1033,7 +1219,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1552575" y="1838325"/>
-          <a:ext cx="4924425" cy="1095375"/>
+          <a:ext cx="4581525" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,7 +1259,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6477000</xdr:colOff>
+      <xdr:colOff>6134100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>4381500</xdr:rowOff>
     </xdr:to>
@@ -1085,7 +1271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1552575" y="3286125"/>
-          <a:ext cx="4924425" cy="1095375"/>
+          <a:ext cx="4581525" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2054,6 +2240,348 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>物资归还</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3438525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4295775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="3438525"/>
+          <a:ext cx="285750" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户登录</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2583180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3438525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2868930</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4295775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2583180" y="3438525"/>
+          <a:ext cx="285750" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户绑定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3023235</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3438525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3308985</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4295775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3023235" y="3438525"/>
+          <a:ext cx="285750" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>物资查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3463290</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3438525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3749040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4295775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3463290" y="3438525"/>
+          <a:ext cx="285750" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>借入查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3903345</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3438525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4189095</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4295775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="矩形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3903345" y="3438525"/>
+          <a:ext cx="285750" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>归还查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4343400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3438525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4629150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4295775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矩形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="3438525"/>
+          <a:ext cx="285750" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>微信通知</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2418,7 +2946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2432,4 +2960,219 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>